--- a/cisco.xlsx
+++ b/cisco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/laura_lee_fws_gov/Documents/Documents/Git/USFWS GitHub/pva-lake-erie-cisco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="581" documentId="8_{29CC0380-1B16-48C8-8689-67AA598726F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EED5B2D-FDBD-490E-B72D-8EF3DAE2DBBB}"/>
+  <xr:revisionPtr revIDLastSave="583" documentId="8_{29CC0380-1B16-48C8-8689-67AA598726F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B7E47D-1BB1-4ABB-82F8-D7F658BFD28B}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{D2E97B22-AF74-4F08-A3D1-0F361F02F459}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="8" xr2:uid="{D2E97B22-AF74-4F08-A3D1-0F361F02F459}"/>
   </bookViews>
   <sheets>
     <sheet name="lw" sheetId="9" r:id="rId1"/>
@@ -154,7 +154,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -204,7 +204,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,10 +227,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -268,7 +272,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -374,7 +378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -516,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,16 +530,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351D6934-75C4-450C-8669-DBB5E5FC20E8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -546,7 +550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.2766960000000001E-6</v>
       </c>
@@ -557,7 +561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.132233E-5</v>
       </c>
@@ -568,7 +572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.241604E-6</v>
       </c>
@@ -579,7 +583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.158784E-6</v>
       </c>
@@ -590,7 +594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4.9087390000000001E-6</v>
       </c>
@@ -614,13 +618,13 @@
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.27734375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -631,7 +635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -642,7 +646,7 @@
         <v>6.362231941563933</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -653,7 +657,7 @@
         <v>11.71570874248467</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -664,7 +668,7 @@
         <v>19.631675399509987</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -675,7 +679,7 @@
         <v>30.701425092710192</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -686,7 +690,7 @@
         <v>45.546615124690518</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -697,7 +701,7 @@
         <v>64.816713566898557</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -708,7 +712,7 @@
         <v>89.186930388989055</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -719,7 +723,7 @@
         <v>119.35650016685423</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -730,7 +734,7 @@
         <v>156.04722911371249</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -741,7 +745,7 @@
         <v>200.00224652224585</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -752,7 +756,7 @@
         <v>251.9849179737073</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -763,7 +767,7 @@
         <v>312.77788905014859</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -774,7 +778,7 @@
         <v>383.18223605481268</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -785,7 +789,7 @@
         <v>464.01670570865178</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -796,7 +800,7 @@
         <v>556.11702973069623</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -807,7 +811,7 @@
         <v>660.33530311387563</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -818,7 +822,7 @@
         <v>777.53941708952698</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -829,7 +833,7 @@
         <v>908.61253944052771</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -840,7 +844,7 @@
         <v>1054.4526361154301</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -851,7 +855,7 @@
         <v>1215.9720291116619</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -862,7 +866,7 @@
         <v>1394.0969864036019</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -873,7 +877,7 @@
         <v>8.2492755139123357</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -884,7 +888,7 @@
         <v>14.077159919653001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -895,7 +899,7 @@
         <v>22.118320762326405</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -906,7 +910,7 @@
         <v>32.714513527104181</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -917,7 +921,7 @@
         <v>46.204128872204336</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -928,7 +932,7 @@
         <v>62.922645423159857</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -939,7 +943,7 @@
         <v>83.202977378752806</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -950,7 +954,7 @@
         <v>107.37574962741866</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -961,7 +965,7 @@
         <v>135.76952080131667</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -972,7 +976,7 @@
         <v>168.71096768878922</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -983,7 +987,7 @@
         <v>206.5250401860431</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -994,7 +998,7 @@
         <v>249.53509328007462</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1005,7 +1009,7 @@
         <v>298.06300078255532</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1016,7 +1020,7 @@
         <v>352.42925432767851</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1027,7 +1031,7 @@
         <v>412.95305030228337</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1038,7 +1042,7 @@
         <v>479.9523667710514</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -1049,7 +1053,7 @@
         <v>553.74403201631412</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1060,7 +1064,7 @@
         <v>634.64378598157805</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1071,7 +1075,7 @@
         <v>722.96633565746322</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>819.025405256196</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -1093,7 +1097,7 @@
         <v>923.13378187086289</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>6.0657862605439776</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -1115,7 +1119,7 @@
         <v>11.16104809937244</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>18.689827982515329</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -1137,7 +1141,7 @@
         <v>29.211683550319904</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -1148,7 +1152,7 @@
         <v>43.314543664073767</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>61.612307478591674</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -1170,7 +1174,7 @@
         <v>84.742900155937804</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -1181,7 +1185,7 @@
         <v>113.36665977746132</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -1192,7 +1196,7 @@
         <v>148.16497313936543</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>189.83910393793812</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>239.10917314977453</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>296.7132621498331</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>363.40661643768431</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -1247,7 +1251,7 @@
         <v>439.96093299312651</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>527.16371799589035</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -1269,7 +1273,7 @@
         <v>625.81770438052331</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -1280,7 +1284,7 @@
         <v>736.7403207527442</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -1291,7 +1295,7 @@
         <v>860.7632047633341</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>998.7317552525534</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -1313,7 +1317,7 @@
         <v>1151.5047184342257</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -1324,7 +1328,7 @@
         <v>1319.9538041489197</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -1335,7 +1339,7 @@
         <v>5.2402317002180503</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>9.6125777106983179</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -1357,7 +1361,7 @@
         <v>16.055245658455437</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>25.037747144103367</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -1379,7 +1383,7 @@
         <v>37.052214379933716</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -1390,7 +1394,7 @@
         <v>52.611438910235442</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -1401,7 +1405,7 @@
         <v>72.24728678560993</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -1412,7 +1416,7 @@
         <v>96.509386211921196</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>125.96401957894064</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>161.19317321665483</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -1445,7 +1449,7 @@
         <v>202.79371173970065</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>251.37665272837228</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -1467,7 +1471,7 @@
         <v>307.56652355148259</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -1478,7 +1482,7 @@
         <v>372.00078638845582</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -1489,7 +1493,7 @@
         <v>445.32932056997487</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>528.21395361015595</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>621.3280339942645</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -1522,7 +1526,7 @@
         <v>725.35604007609288</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>840.9932204386073</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -1544,7 +1548,7 @@
         <v>968.9452618557973</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -1555,7 +1559,7 @@
         <v>1109.9279816171279</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>27</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>8.733411849590258</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -1577,7 +1581,7 @@
         <v>15.439520460511858</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -1588,7 +1592,7 @@
         <v>24.994801279909534</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -1599,7 +1603,7 @@
         <v>37.938549951198461</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>54.819848838841573</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>27</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>76.196476271544867</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>27</v>
       </c>
@@ -1632,7 +1636,7 @@
         <v>102.63404789815162</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -1643,7 +1647,7 @@
         <v>134.70532189188123</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -1654,7 +1658,7 @@
         <v>172.98962436059691</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -1665,7 +1669,7 @@
         <v>218.07236569588352</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -1676,7 +1680,7 @@
         <v>270.54462746701006</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>27</v>
       </c>
@@ -1687,7 +1691,7 @@
         <v>331.00280519450581</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>400.04829617619208</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -1709,7 +1713,7 @@
         <v>478.2872241911324</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -1720,7 +1724,7 @@
         <v>566.33019478981078</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -1731,7 +1735,7 @@
         <v>664.79207624595119</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -1742,7 +1746,7 @@
         <v>774.29180225851167</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>27</v>
       </c>
@@ -1753,7 +1757,7 @@
         <v>895.45219325606547</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>27</v>
       </c>
@@ -1764,7 +1768,7 @@
         <v>1028.899793740926</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>27</v>
       </c>
@@ -1775,7 +1779,7 @@
         <v>1175.2647235647237</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>27</v>
       </c>
@@ -1800,12 +1804,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="25.71875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1819,7 +1823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>381.3288</v>
       </c>
@@ -1833,7 +1837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>403.71933999999999</v>
       </c>
@@ -1847,7 +1851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>434.62</v>
       </c>
@@ -1861,7 +1865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>451.39</v>
       </c>
@@ -1888,12 +1892,12 @@
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.71875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1915,7 +1919,7 @@
         <v>236.85048384384748</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1926,7 +1930,7 @@
         <v>283.46962698904343</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1937,7 +1941,7 @@
         <v>315.04606638869382</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1948,7 +1952,7 @@
         <v>336.43366508510059</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1959,7 +1963,7 @@
         <v>350.92007921840548</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1970,7 +1974,7 @@
         <v>360.73212952945198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1981,7 +1985,7 @@
         <v>367.3781035034504</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1992,7 +1996,7 @@
         <v>371.87960611125288</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>374.92859875060577</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2014,7 +2018,7 @@
         <v>376.99376607911404</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2025,7 +2029,7 @@
         <v>378.39256122203801</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2036,7 +2040,7 @@
         <v>379.3400039908916</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2047,7 +2051,7 @@
         <v>379.98173327111806</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>380.41639432151408</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2069,7 +2073,7 @@
         <v>380.71080231340852</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>219.30377300481601</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>256.75915095552244</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2102,7 +2106,7 @@
         <v>286.6072245973312</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2113,7 +2117,7 @@
         <v>310.39306120801302</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2124,7 +2128,7 @@
         <v>329.34792007292737</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2135,7 +2139,7 @@
         <v>344.45298786892283</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2146,7 +2150,7 @@
         <v>356.49016919259668</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2157,7 +2161,7 @@
         <v>366.08256137354505</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2168,7 +2172,7 @@
         <v>373.72670872655971</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2179,7 +2183,7 @@
         <v>379.81830586440992</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2190,7 +2194,7 @@
         <v>384.67268058747567</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2201,7 +2205,7 @@
         <v>388.5411166344885</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2212,7 +2216,7 @@
         <v>391.62386123158814</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2223,7 +2227,7 @@
         <v>394.08049076751797</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2234,7 +2238,7 @@
         <v>396.03817116779521</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2245,7 +2249,7 @@
         <v>217.12787867237873</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2256,7 +2260,7 @@
         <v>264.40495196092735</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2267,7 +2271,7 @@
         <v>301.40523156569969</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2278,7 +2282,7 @@
         <v>330.36262244469344</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>353.02543730652138</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>370.76195160809374</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2311,7 +2315,7 @@
         <v>384.64301366891249</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2322,7 +2326,7 @@
         <v>395.50669751682739</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2333,7 +2337,7 @@
         <v>404.00890190366408</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2344,7 +2348,7 @@
         <v>410.66295042417767</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2355,7 +2359,7 @@
         <v>415.87058360950772</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2366,7 +2370,7 @@
         <v>419.9462141537312</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2377,7 +2381,7 @@
         <v>423.13590969138932</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2388,7 +2392,7 @@
         <v>425.63224921788947</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2399,7 +2403,7 @@
         <v>427.58595011441514</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2410,7 +2414,7 @@
         <v>302.94556534148302</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2421,7 +2425,7 @@
         <v>337.046084359497</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2432,7 +2436,7 @@
         <v>363.31306350804431</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2443,7 +2447,7 @@
         <v>383.54601636209748</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2454,7 +2458,7 @@
         <v>399.13107389304599</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -2465,7 +2469,7 @@
         <v>411.135946340239</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2476,7 +2480,7 @@
         <v>420.38307052872455</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2487,7 +2491,7 @@
         <v>427.5059538524261</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2498,7 +2502,7 @@
         <v>432.99257496931773</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -2509,7 +2513,7 @@
         <v>437.21881452881661</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>440.47420622322102</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -2531,7 +2535,7 @@
         <v>442.98177233129411</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2542,7 +2546,7 @@
         <v>444.91330265901627</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -2553,7 +2557,7 @@
         <v>446.40112361611853</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -2577,9 +2581,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2595,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2611,7 +2615,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2627,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2635,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2643,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2651,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2659,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2667,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2683,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2691,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2699,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2720,13 +2724,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -2743,7 +2747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-86.5</v>
       </c>
@@ -2760,7 +2764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-440.35</v>
       </c>
@@ -2777,7 +2781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.919</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.9780000000000002</v>
       </c>
@@ -2824,12 +2828,12 @@
       <selection activeCell="C57" sqref="C49:C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.71875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2851,7 +2855,7 @@
         <v>2876.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2862,7 +2866,7 @@
         <v>3806.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>4736.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2884,7 +2888,7 @@
         <v>5666.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2895,7 +2899,7 @@
         <v>6596.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2906,7 +2910,7 @@
         <v>7526.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2917,7 +2921,7 @@
         <v>8456.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2928,7 +2932,7 @@
         <v>9386.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2939,7 +2943,7 @@
         <v>10316.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2950,7 +2954,7 @@
         <v>11246.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2961,7 +2965,7 @@
         <v>12176.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2972,7 +2976,7 @@
         <v>13106.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>14036.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2994,7 +2998,7 @@
         <v>14966.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3005,7 +3009,7 @@
         <v>15896.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3016,7 +3020,7 @@
         <v>16826.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3027,7 +3031,7 @@
         <v>17756.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3038,7 +3042,7 @@
         <v>18686.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>19616.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>20546.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>21476.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -3082,7 +3086,7 @@
         <v>22406.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>23336.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -3104,7 +3108,7 @@
         <v>24266.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -3115,7 +3119,7 @@
         <v>25196.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3126,7 +3130,7 @@
         <v>26126.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -3137,7 +3141,7 @@
         <v>27056.5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -3148,7 +3152,7 @@
         <v>27986.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -3159,7 +3163,7 @@
         <v>3109.1499999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -3170,7 +3174,7 @@
         <v>3998.7499999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -3181,7 +3185,7 @@
         <v>4888.3500000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -3192,7 +3196,7 @@
         <v>5777.95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3203,7 +3207,7 @@
         <v>6667.55</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -3214,7 +3218,7 @@
         <v>7557.15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -3225,7 +3229,7 @@
         <v>8446.75</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -3236,7 +3240,7 @@
         <v>9336.35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -3247,7 +3251,7 @@
         <v>10225.949999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -3258,7 +3262,7 @@
         <v>11115.55</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -3269,7 +3273,7 @@
         <v>12005.15</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -3280,7 +3284,7 @@
         <v>12894.75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -3291,7 +3295,7 @@
         <v>13784.349999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3302,7 +3306,7 @@
         <v>14673.949999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -3313,7 +3317,7 @@
         <v>15563.55</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -3324,7 +3328,7 @@
         <v>16453.149999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -3335,7 +3339,7 @@
         <v>17342.749999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -3346,7 +3350,7 @@
         <v>18232.349999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -3357,7 +3361,7 @@
         <v>19121.949999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -3368,7 +3372,7 @@
         <v>20011.549999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -3379,7 +3383,7 @@
         <v>20901.149999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -3390,7 +3394,7 @@
         <v>21790.749999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -3401,7 +3405,7 @@
         <v>22680.35</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -3412,7 +3416,7 @@
         <v>23569.949999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -3423,7 +3427,7 @@
         <v>24459.549999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -3434,7 +3438,7 @@
         <v>25349.149999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -3445,7 +3449,7 @@
         <v>26238.749999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -3469,12 +3473,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3497,7 +3501,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3508,7 +3512,7 @@
         <v>4965.9232145033657</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3519,7 +3523,7 @@
         <v>5407.5432294558095</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3530,7 +3534,7 @@
         <v>5888.4365535558973</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3541,7 +3545,7 @@
         <v>6412.0957658516199</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3552,7 +3556,7 @@
         <v>6982.324040771713</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3563,7 +3567,7 @@
         <v>7603.2627694018256</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3574,7 +3578,7 @@
         <v>8279.4216371233579</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3585,7 +3589,7 @@
         <v>9015.7113760595803</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3596,7 +3600,7 @@
         <v>9817.47943019985</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3607,7 +3611,7 @@
         <v>10690.548792226578</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3618,7 +3622,7 @@
         <v>11641.260294104924</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3629,7 +3633,7 @@
         <v>12676.51865857846</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3640,7 +3644,7 @@
         <v>13803.842646028841</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>15031.419660900232</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -3662,7 +3666,7 @@
         <v>16368.165214278113</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>17823.787674480882</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3684,7 +3688,7 @@
         <v>19408.85877592782</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -3695,7 +3699,7 @@
         <v>21134.890398366497</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -3706,7 +3710,7 @@
         <v>23014.418174085098</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -3717,7 +3721,7 @@
         <v>25061.092530321181</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3728,7 +3732,7 @@
         <v>5223.9618899912002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -3739,7 +3743,7 @@
         <v>5688.529308438423</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -3750,7 +3754,7 @@
         <v>6194.4107507678191</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -3761,7 +3765,7 @@
         <v>6745.2802769792315</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -3772,7 +3776,7 @@
         <v>7345.1386815711576</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -3783,7 +3787,7 @@
         <v>7998.342550070287</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -3794,7 +3798,7 @@
         <v>8709.6358995608189</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>9484.1846330089793</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -3816,7 +3820,7 @@
         <v>10327.614057613993</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3827,7 +3831,7 @@
         <v>11246.049739669277</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -3838,7 +3842,7 @@
         <v>12246.161992650492</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3849,7 +3853,7 @@
         <v>13335.214321633259</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3860,7 +3864,7 @@
         <v>14521.116175877434</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3871,7 +3875,7 @@
         <v>15812.480392703832</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3882,7 +3886,7 @@
         <v>17218.68574986012</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -3893,7 +3897,7 @@
         <v>18749.945080674195</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -3904,7 +3908,7 @@
         <v>20417.379446695322</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3915,7 +3919,7 @@
         <v>22233.098906514089</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -3926,7 +3930,7 @@
         <v>24210.290467361825</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -3937,7 +3941,7 @@
         <v>26363.313858253827</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -3957,17 +3961,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41B9054-2EDC-4D45-B254-D326D5D6BCE7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.27734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -3978,18 +3982,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="7">
-        <v>2.7604680000000003E-3</v>
+        <v>6.4757279187344658E-3</v>
       </c>
       <c r="C2" s="8">
-        <v>5.2715552305522833E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>9.1532483717214237E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -4000,7 +4004,7 @@
         <v>1.4899999999999999E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>

--- a/cisco.xlsx
+++ b/cisco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/laura_lee_fws_gov/Documents/Documents/Git/USFWS GitHub/pva-lake-erie-cisco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="585" documentId="8_{29CC0380-1B16-48C8-8689-67AA598726F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B6FCE5F-AF54-4AD3-A785-7D59CF2D96BA}"/>
+  <xr:revisionPtr revIDLastSave="655" documentId="8_{29CC0380-1B16-48C8-8689-67AA598726F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D55D47D4-AC9C-47FC-BE48-C743A0D0D6D2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="8" xr2:uid="{D2E97B22-AF74-4F08-A3D1-0F361F02F459}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="35">
   <si>
     <t>age</t>
   </si>
@@ -147,16 +147,20 @@
   <si>
     <t>var</t>
   </si>
+  <si>
+    <t>Lake Michigan (this study)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -165,6 +169,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -188,10 +198,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,10 +215,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8FD4FEFD-01B6-4645-B612-B662A4C5D320}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -225,10 +239,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,9 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351D6934-75C4-450C-8669-DBB5E5FC20E8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -563,45 +571,45 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.132233E-5</v>
+        <v>7.0476539999999997E-7</v>
       </c>
       <c r="B3">
-        <v>2.9312399999999998</v>
+        <v>3.4220429999999999</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>1.241604E-6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>3.344452</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>1.158784E-6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>3.327674</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="8">
         <v>4.9087390000000001E-6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>3.1251069999999999</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -614,9 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5406AF-F8B6-47DF-B027-CE70CBDB45FA}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -873,8 +879,8 @@
       <c r="B23">
         <v>100</v>
       </c>
-      <c r="C23">
-        <v>8.2492755139123357</v>
+      <c r="C23" s="10">
+        <v>4.9218749401146606</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -884,8 +890,8 @@
       <c r="B24">
         <v>120</v>
       </c>
-      <c r="C24">
-        <v>14.077159919653001</v>
+      <c r="C24" s="10">
+        <v>9.1852758462943722</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -895,8 +901,8 @@
       <c r="B25">
         <v>140</v>
       </c>
-      <c r="C25">
-        <v>22.118320762326405</v>
+      <c r="C25" s="10">
+        <v>15.566357349425576</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -906,8 +912,8 @@
       <c r="B26">
         <v>160</v>
       </c>
-      <c r="C26">
-        <v>32.714513527104181</v>
+      <c r="C26" s="10">
+        <v>24.583172710830365</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -917,8 +923,8 @@
       <c r="B27">
         <v>180</v>
       </c>
-      <c r="C27">
-        <v>46.204128872204336</v>
+      <c r="C27" s="10">
+        <v>36.786126816709626</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -928,8 +934,8 @@
       <c r="B28">
         <v>200</v>
       </c>
-      <c r="C28">
-        <v>62.922645423159857</v>
+      <c r="C28" s="10">
+        <v>52.75555107684032</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -939,8 +945,8 @@
       <c r="B29">
         <v>220</v>
       </c>
-      <c r="C29">
-        <v>83.202977378752806</v>
+      <c r="C29" s="10">
+        <v>73.099719835728038</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -950,8 +956,8 @@
       <c r="B30">
         <v>240</v>
       </c>
-      <c r="C30">
-        <v>107.37574962741866</v>
+      <c r="C30" s="10">
+        <v>98.45319008710176</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -961,8 +967,8 @@
       <c r="B31">
         <v>260</v>
       </c>
-      <c r="C31">
-        <v>135.76952080131667</v>
+      <c r="C31" s="10">
+        <v>129.47538620700189</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -972,8 +978,8 @@
       <c r="B32">
         <v>280</v>
       </c>
-      <c r="C32">
-        <v>168.71096768878922</v>
+      <c r="C32" s="10">
+        <v>166.84937553672182</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -983,8 +989,8 @@
       <c r="B33">
         <v>300</v>
       </c>
-      <c r="C33">
-        <v>206.5250401860431</v>
+      <c r="C33" s="10">
+        <v>211.28079599057205</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -994,8 +1000,8 @@
       <c r="B34">
         <v>320</v>
       </c>
-      <c r="C34">
-        <v>249.53509328007462</v>
+      <c r="C34" s="10">
+        <v>263.49690704388109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1005,8 +1011,8 @@
       <c r="B35">
         <v>340</v>
       </c>
-      <c r="C35">
-        <v>298.06300078255532</v>
+      <c r="C35" s="10">
+        <v>324.24574244927686</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1016,8 +1022,8 @@
       <c r="B36">
         <v>360</v>
       </c>
-      <c r="C36">
-        <v>352.42925432767851</v>
+      <c r="C36" s="10">
+        <v>394.29534797420996</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1027,8 +1033,8 @@
       <c r="B37">
         <v>380</v>
       </c>
-      <c r="C37">
-        <v>412.95305030228337</v>
+      <c r="C37" s="10">
+        <v>474.43309103756246</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1038,8 +1044,8 @@
       <c r="B38">
         <v>400</v>
       </c>
-      <c r="C38">
-        <v>479.9523667710514</v>
+      <c r="C38" s="10">
+        <v>565.46503177837064</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1049,8 +1055,8 @@
       <c r="B39">
         <v>420</v>
       </c>
-      <c r="C39">
-        <v>553.74403201631412</v>
+      <c r="C39" s="10">
+        <v>668.21534709366813</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1060,8 +1066,8 @@
       <c r="B40">
         <v>440</v>
       </c>
-      <c r="C40">
-        <v>634.64378598157805</v>
+      <c r="C40" s="10">
+        <v>783.52580071988189</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1071,8 +1077,8 @@
       <c r="B41">
         <v>460</v>
       </c>
-      <c r="C41">
-        <v>722.96633565746322</v>
+      <c r="C41" s="10">
+        <v>912.25525362942676</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1082,8 +1088,8 @@
       <c r="B42">
         <v>480</v>
       </c>
-      <c r="C42">
-        <v>819.025405256196</v>
+      <c r="C42" s="10">
+        <v>1055.2792099583412</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1093,8 +1099,8 @@
       <c r="B43">
         <v>500</v>
       </c>
-      <c r="C43">
-        <v>923.13378187086289</v>
+      <c r="C43" s="10">
+        <v>1213.489394434773</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1798,11 +1804,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92584343-CDE6-45A9-82B4-1295DD6F72DD}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1853,29 +1857,43 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>518.24095</v>
+      </c>
+      <c r="B4">
+        <v>0.38796000000000003</v>
+      </c>
+      <c r="C4">
+        <v>-1.70448</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>434.62</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="8">
         <v>0.24510000000000001</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="8">
         <v>-1.8246</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>451.39</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="8">
         <v>0.26100000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="8">
         <v>-3.2610000000000001</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1886,11 +1904,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473B693D-296D-42FB-B4EB-71B54781AC46}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2568,6 +2584,171 @@
         <v>447.5471637111778</v>
       </c>
     </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>336.74919462376317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>395.10977780370735</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="2">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>434.70390152634701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="2">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>461.56611824769124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="2">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>479.79050659984131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="2">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>492.15465116226977</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="2">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>500.54297497356487</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="2">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>506.23394502069289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="2">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>510.09492378187252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="2">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>512.71436420605869</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="2">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>514.49149600612191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="2">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>515.69717238098247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="2">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>516.51515083415359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="2">
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <v>517.07009971081993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="2">
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>517.44659893829896</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2577,9 +2758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6686085-816D-4CFF-9E62-A6C197D92E2B}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2720,9 +2899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DFD714-AC29-42AA-8B1F-B5A89C9F2D11}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2824,9 +3001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C387D6A-246C-42DA-928C-B6EA7B0B5C1A}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C57" sqref="C49:C57"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3469,9 +3644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B30CFEB-0AB9-41D4-84ED-8FDEC8B9BFAA}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3961,9 +4134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41B9054-2EDC-4D45-B254-D326D5D6BCE7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3989,8 +4160,8 @@
       <c r="B2" s="7">
         <v>8.6343038916171701E-3</v>
       </c>
-      <c r="C2" s="8">
-        <v>1.6272441549778071E-4</v>
+      <c r="C2" s="9">
+        <v>1.6272441549778101E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/cisco.xlsx
+++ b/cisco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/laura_lee_fws_gov/Documents/Documents/Git/USFWS GitHub/pva-lake-erie-cisco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="655" documentId="8_{29CC0380-1B16-48C8-8689-67AA598726F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D55D47D4-AC9C-47FC-BE48-C743A0D0D6D2}"/>
+  <xr:revisionPtr revIDLastSave="658" documentId="8_{29CC0380-1B16-48C8-8689-67AA598726F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEA7C6D5-C4B9-4BDB-A6A0-A7211A8737ED}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="8" xr2:uid="{D2E97B22-AF74-4F08-A3D1-0F361F02F459}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="5" xr2:uid="{D2E97B22-AF74-4F08-A3D1-0F361F02F459}"/>
   </bookViews>
   <sheets>
     <sheet name="lw" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="37">
   <si>
     <t>age</t>
   </si>
@@ -150,6 +150,12 @@
   <si>
     <t>Lake Michigan (this study)</t>
   </si>
+  <si>
+    <t>Superior (Wisconsin waters)</t>
+  </si>
+  <si>
+    <t>Superior (Ontario waters)</t>
+  </si>
 </sst>
 </file>
 
@@ -158,7 +164,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -217,7 +223,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2899,11 +2905,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DFD714-AC29-42AA-8B1F-B5A89C9F2D11}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2935,7 +2943,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -2952,7 +2960,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -4134,7 +4142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41B9054-2EDC-4D45-B254-D326D5D6BCE7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/cisco.xlsx
+++ b/cisco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/laura_lee_fws_gov/Documents/Documents/Git/USFWS GitHub/pva-lake-erie-cisco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="658" documentId="8_{29CC0380-1B16-48C8-8689-67AA598726F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEA7C6D5-C4B9-4BDB-A6A0-A7211A8737ED}"/>
+  <xr:revisionPtr revIDLastSave="661" documentId="8_{29CC0380-1B16-48C8-8689-67AA598726F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{991542F2-0F0F-4D50-87D0-887E78EA032F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="5" xr2:uid="{D2E97B22-AF74-4F08-A3D1-0F361F02F459}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="6" xr2:uid="{D2E97B22-AF74-4F08-A3D1-0F361F02F459}"/>
   </bookViews>
   <sheets>
     <sheet name="lw" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="35">
   <si>
     <t>age</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>weight</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Ontario</t>
   </si>
   <si>
     <t>Superior</t>
@@ -245,6 +239,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,13 +553,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -572,7 +570,7 @@
         <v>3.3487610000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -583,7 +581,7 @@
         <v>3.4220429999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -594,7 +592,7 @@
         <v>3.344452</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -605,7 +603,7 @@
         <v>3.327674</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -616,7 +614,7 @@
         <v>3.1251069999999999</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -638,7 +636,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -649,7 +647,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -660,7 +658,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>120</v>
@@ -671,7 +669,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>140</v>
@@ -682,7 +680,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>160</v>
@@ -693,7 +691,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>180</v>
@@ -704,7 +702,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -715,7 +713,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>220</v>
@@ -726,7 +724,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>240</v>
@@ -737,7 +735,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>260</v>
@@ -748,7 +746,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>280</v>
@@ -759,7 +757,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>300</v>
@@ -770,7 +768,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>320</v>
@@ -781,7 +779,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>340</v>
@@ -792,7 +790,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>360</v>
@@ -803,7 +801,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>380</v>
@@ -814,7 +812,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>400</v>
@@ -825,7 +823,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>420</v>
@@ -836,7 +834,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>440</v>
@@ -847,7 +845,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>460</v>
@@ -858,7 +856,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>480</v>
@@ -869,7 +867,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>500</v>
@@ -880,7 +878,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>100</v>
@@ -891,7 +889,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>120</v>
@@ -902,7 +900,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>140</v>
@@ -913,7 +911,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>160</v>
@@ -924,7 +922,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>180</v>
@@ -935,7 +933,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -946,7 +944,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>220</v>
@@ -957,7 +955,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30">
         <v>240</v>
@@ -968,7 +966,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>260</v>
@@ -979,7 +977,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>280</v>
@@ -990,7 +988,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>300</v>
@@ -1001,7 +999,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>320</v>
@@ -1012,7 +1010,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>340</v>
@@ -1023,7 +1021,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>360</v>
@@ -1034,7 +1032,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37">
         <v>380</v>
@@ -1045,7 +1043,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>400</v>
@@ -1056,7 +1054,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B39">
         <v>420</v>
@@ -1067,7 +1065,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B40">
         <v>440</v>
@@ -1078,7 +1076,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B41">
         <v>460</v>
@@ -1089,7 +1087,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B42">
         <v>480</v>
@@ -1100,7 +1098,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B43">
         <v>500</v>
@@ -1111,7 +1109,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B44">
         <v>100</v>
@@ -1122,7 +1120,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B45">
         <v>120</v>
@@ -1133,7 +1131,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>140</v>
@@ -1144,7 +1142,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>160</v>
@@ -1155,7 +1153,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B48">
         <v>180</v>
@@ -1166,7 +1164,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>200</v>
@@ -1177,7 +1175,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>220</v>
@@ -1188,7 +1186,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>240</v>
@@ -1199,7 +1197,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>260</v>
@@ -1210,7 +1208,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>280</v>
@@ -1221,7 +1219,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B54">
         <v>300</v>
@@ -1232,7 +1230,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B55">
         <v>320</v>
@@ -1243,7 +1241,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B56">
         <v>340</v>
@@ -1254,7 +1252,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B57">
         <v>360</v>
@@ -1265,7 +1263,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B58">
         <v>380</v>
@@ -1276,7 +1274,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B59">
         <v>400</v>
@@ -1287,7 +1285,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B60">
         <v>420</v>
@@ -1298,7 +1296,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B61">
         <v>440</v>
@@ -1309,7 +1307,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B62">
         <v>460</v>
@@ -1320,7 +1318,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B63">
         <v>480</v>
@@ -1331,7 +1329,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B64">
         <v>500</v>
@@ -1342,7 +1340,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B65">
         <v>100</v>
@@ -1353,7 +1351,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B66">
         <v>120</v>
@@ -1364,7 +1362,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B67">
         <v>140</v>
@@ -1375,7 +1373,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B68">
         <v>160</v>
@@ -1386,7 +1384,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B69">
         <v>180</v>
@@ -1397,7 +1395,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B70">
         <v>200</v>
@@ -1408,7 +1406,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B71">
         <v>220</v>
@@ -1419,7 +1417,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B72">
         <v>240</v>
@@ -1430,7 +1428,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B73">
         <v>260</v>
@@ -1441,7 +1439,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B74">
         <v>280</v>
@@ -1452,7 +1450,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B75">
         <v>300</v>
@@ -1463,7 +1461,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B76">
         <v>320</v>
@@ -1474,7 +1472,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B77">
         <v>340</v>
@@ -1485,7 +1483,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B78">
         <v>360</v>
@@ -1496,7 +1494,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B79">
         <v>380</v>
@@ -1507,7 +1505,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B80">
         <v>400</v>
@@ -1518,7 +1516,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B81">
         <v>420</v>
@@ -1529,7 +1527,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B82">
         <v>440</v>
@@ -1540,7 +1538,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B83">
         <v>460</v>
@@ -1551,7 +1549,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B84">
         <v>480</v>
@@ -1562,7 +1560,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B85">
         <v>500</v>
@@ -1573,7 +1571,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B86">
         <v>100</v>
@@ -1584,7 +1582,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B87">
         <v>120</v>
@@ -1595,7 +1593,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B88">
         <v>140</v>
@@ -1606,7 +1604,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B89">
         <v>160</v>
@@ -1617,7 +1615,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B90">
         <v>180</v>
@@ -1628,7 +1626,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B91">
         <v>200</v>
@@ -1639,7 +1637,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B92">
         <v>220</v>
@@ -1650,7 +1648,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B93">
         <v>240</v>
@@ -1661,7 +1659,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B94">
         <v>260</v>
@@ -1672,7 +1670,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B95">
         <v>280</v>
@@ -1683,7 +1681,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B96">
         <v>300</v>
@@ -1694,7 +1692,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B97">
         <v>320</v>
@@ -1705,7 +1703,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B98">
         <v>340</v>
@@ -1716,7 +1714,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B99">
         <v>360</v>
@@ -1727,7 +1725,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B100">
         <v>380</v>
@@ -1738,7 +1736,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B101">
         <v>400</v>
@@ -1749,7 +1747,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B102">
         <v>420</v>
@@ -1760,7 +1758,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B103">
         <v>440</v>
@@ -1771,7 +1769,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B104">
         <v>460</v>
@@ -1782,7 +1780,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B105">
         <v>480</v>
@@ -1793,7 +1791,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B106">
         <v>500</v>
@@ -1821,16 +1819,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1844,7 +1842,7 @@
         <v>-1.4911000000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1858,7 +1856,7 @@
         <v>-2.4512100000000001</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1872,7 +1870,7 @@
         <v>-1.70448</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1886,7 +1884,7 @@
         <v>-1.8246</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1900,7 +1898,7 @@
         <v>-3.2610000000000001</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1921,7 +1919,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1932,7 +1930,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1943,7 +1941,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1954,7 +1952,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -1965,7 +1963,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -1976,7 +1974,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -1987,7 +1985,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
@@ -1998,7 +1996,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
@@ -2009,7 +2007,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
@@ -2020,7 +2018,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
@@ -2031,7 +2029,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
@@ -2042,7 +2040,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
@@ -2053,7 +2051,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
@@ -2064,7 +2062,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
@@ -2075,7 +2073,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
@@ -2086,7 +2084,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
@@ -2097,7 +2095,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -2108,7 +2106,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -2119,7 +2117,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
@@ -2130,7 +2128,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -2141,7 +2139,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>5</v>
@@ -2152,7 +2150,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2">
         <v>6</v>
@@ -2163,7 +2161,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
         <v>7</v>
@@ -2174,7 +2172,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2">
         <v>8</v>
@@ -2185,7 +2183,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2">
         <v>9</v>
@@ -2196,7 +2194,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2">
         <v>10</v>
@@ -2207,7 +2205,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2">
         <v>11</v>
@@ -2218,7 +2216,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2">
         <v>12</v>
@@ -2229,7 +2227,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2">
         <v>13</v>
@@ -2240,7 +2238,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2">
         <v>14</v>
@@ -2251,7 +2249,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2">
         <v>15</v>
@@ -2262,7 +2260,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -2273,7 +2271,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
@@ -2284,7 +2282,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
@@ -2295,7 +2293,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" s="2">
         <v>4</v>
@@ -2306,7 +2304,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36" s="2">
         <v>5</v>
@@ -2317,7 +2315,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B37" s="2">
         <v>6</v>
@@ -2328,7 +2326,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B38" s="2">
         <v>7</v>
@@ -2339,7 +2337,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B39" s="2">
         <v>8</v>
@@ -2350,7 +2348,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40" s="2">
         <v>9</v>
@@ -2361,7 +2359,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B41" s="2">
         <v>10</v>
@@ -2372,7 +2370,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B42" s="2">
         <v>11</v>
@@ -2383,7 +2381,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B43" s="2">
         <v>12</v>
@@ -2394,7 +2392,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B44" s="2">
         <v>13</v>
@@ -2405,7 +2403,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B45" s="2">
         <v>14</v>
@@ -2416,7 +2414,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B46" s="2">
         <v>15</v>
@@ -2427,7 +2425,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -2438,7 +2436,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
@@ -2449,7 +2447,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B49" s="2">
         <v>3</v>
@@ -2460,7 +2458,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B50" s="2">
         <v>4</v>
@@ -2471,7 +2469,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B51" s="2">
         <v>5</v>
@@ -2482,7 +2480,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B52" s="2">
         <v>6</v>
@@ -2493,7 +2491,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B53" s="2">
         <v>7</v>
@@ -2504,7 +2502,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B54" s="2">
         <v>8</v>
@@ -2515,7 +2513,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B55" s="2">
         <v>9</v>
@@ -2526,7 +2524,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" s="2">
         <v>10</v>
@@ -2537,7 +2535,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B57" s="2">
         <v>11</v>
@@ -2548,7 +2546,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B58" s="2">
         <v>12</v>
@@ -2559,7 +2557,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B59" s="2">
         <v>13</v>
@@ -2570,7 +2568,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B60" s="2">
         <v>14</v>
@@ -2581,7 +2579,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B61" s="2">
         <v>15</v>
@@ -2592,7 +2590,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
@@ -2603,7 +2601,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B63" s="2">
         <v>2</v>
@@ -2614,7 +2612,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B64" s="2">
         <v>3</v>
@@ -2625,7 +2623,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B65" s="2">
         <v>4</v>
@@ -2636,7 +2634,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B66" s="2">
         <v>5</v>
@@ -2647,7 +2645,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B67" s="2">
         <v>6</v>
@@ -2658,7 +2656,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B68" s="2">
         <v>7</v>
@@ -2669,7 +2667,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B69" s="2">
         <v>8</v>
@@ -2680,7 +2678,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B70" s="2">
         <v>9</v>
@@ -2691,7 +2689,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B71" s="2">
         <v>10</v>
@@ -2702,7 +2700,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B72" s="2">
         <v>11</v>
@@ -2713,7 +2711,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B73" s="2">
         <v>12</v>
@@ -2724,7 +2722,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B74" s="2">
         <v>13</v>
@@ -2735,7 +2733,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B75" s="2">
         <v>14</v>
@@ -2746,7 +2744,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B76" s="2">
         <v>15</v>
@@ -2905,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DFD714-AC29-42AA-8B1F-B5A89C9F2D11}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2917,19 +2915,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2943,10 +2941,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2960,10 +2958,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2977,10 +2975,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2994,10 +2992,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3009,27 +3007,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C387D6A-246C-42DA-928C-B6EA7B0B5C1A}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>60</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>80</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>120</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>140</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>160</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>180</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>220</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>240</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>260</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>280</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>300</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>320</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>340</v>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>360</v>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>380</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>400</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>420</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>440</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>460</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>480</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>500</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>520</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>540</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>560</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>580</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>600</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>60</v>
@@ -3348,7 +3348,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>80</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>100</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>120</v>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>140</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>160</v>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>180</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>200</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B38">
         <v>220</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B39">
         <v>240</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B40">
         <v>260</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B41">
         <v>280</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B42">
         <v>300</v>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B43">
         <v>320</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B44">
         <v>340</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B45">
         <v>360</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B46">
         <v>380</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B47">
         <v>400</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>420</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B49">
         <v>440</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B50">
         <v>460</v>
@@ -3568,7 +3568,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B51">
         <v>480</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B52">
         <v>500</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B53">
         <v>520</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B54">
         <v>540</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B55">
         <v>560</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>580</v>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>600</v>
@@ -3661,18 +3661,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>210</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>220</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>230</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>240</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>250</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>260</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>270</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>280</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>290</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>300</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>310</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>320</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>330</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>340</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>350</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>360</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>370</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>380</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>390</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>400</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>210</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>220</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>230</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>240</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>250</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>260</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>270</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>280</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>290</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33">
         <v>300</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>310</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>320</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>330</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>340</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B38">
         <v>350</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B39">
         <v>360</v>
@@ -4091,7 +4091,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B40">
         <v>370</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B41">
         <v>380</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <v>390</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B43">
         <v>400</v>
@@ -4152,18 +4152,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7">
         <v>8.6343038916171701E-3</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>6.1100000000000002E-2</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>5.5599999999999997E-2</v>
